--- a/1_Data_Modeling/ERD.xlsx
+++ b/1_Data_Modeling/ERD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karenTratnik/dataAnalytics/bootcamp_homework/project2/1_Data_Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D701E22A-DBE5-0F48-A3A1-81387EA45BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DC9235-143E-B84A-88EE-73046F2D49C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>datebase name</t>
   </si>
@@ -155,6 +155,18 @@
   </si>
   <si>
     <t>lon</t>
+  </si>
+  <si>
+    <t>max_temp</t>
+  </si>
+  <si>
+    <t>humidity</t>
+  </si>
+  <si>
+    <t>cloudiness</t>
+  </si>
+  <si>
+    <t>wind_speed</t>
   </si>
 </sst>
 </file>
@@ -446,10 +458,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -735,11 +747,31 @@
         <v>44</v>
       </c>
     </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
     </row>

--- a/1_Data_Modeling/ERD.xlsx
+++ b/1_Data_Modeling/ERD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karenTratnik/dataAnalytics/bootcamp_homework/project2/1_Data_Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DC9235-143E-B84A-88EE-73046F2D49C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6533E527-C665-2A4C-A807-DD79B51647C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>datebase name</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Bikes</t>
   </si>
   <si>
-    <t>BikeID</t>
-  </si>
-  <si>
     <t>Locations</t>
   </si>
   <si>
@@ -167,13 +164,48 @@
   </si>
   <si>
     <t>wind_speed</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">??? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>source</t>
+    </r>
+  </si>
+  <si>
+    <t>bike_id</t>
+  </si>
+  <si>
+    <t>price_id</t>
+  </si>
+  <si>
+    <t>membertype_id</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>numeric(10,2)</t>
+  </si>
+  <si>
+    <t>varchar(250)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -192,6 +224,24 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -232,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -240,6 +290,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,10 +510,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -574,205 +626,257 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2</v>
-      </c>
-      <c r="F17" s="2">
-        <v>3</v>
-      </c>
-      <c r="G17" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="6" t="s">
+      <c r="C31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
+      <c r="B45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>42</v>
+      <c r="B46" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/1_Data_Modeling/ERD.xlsx
+++ b/1_Data_Modeling/ERD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karenTratnik/dataAnalytics/bootcamp_homework/project2/1_Data_Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6533E527-C665-2A4C-A807-DD79B51647C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EF9999-027B-BB43-A684-1679E5E75D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>datebase name</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>varchar(250)</t>
+  </si>
+  <si>
+    <t>Subscriber</t>
+  </si>
+  <si>
+    <t>Customer</t>
   </si>
 </sst>
 </file>
@@ -510,10 +516,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="192" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="135" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -522,7 +528,7 @@
     <col min="3" max="3" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,12 +536,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -548,8 +554,20 @@
       <c r="D4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -559,13 +577,43 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -582,7 +630,7 @@
         <v>7233</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -596,7 +644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -604,7 +652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
@@ -612,7 +660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -626,13 +674,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -640,7 +688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
         <v>49</v>
       </c>

--- a/1_Data_Modeling/ERD.xlsx
+++ b/1_Data_Modeling/ERD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karenTratnik/dataAnalytics/bootcamp_homework/project2/1_Data_Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EF9999-027B-BB43-A684-1679E5E75D73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9CA8CD-E1A3-1845-AEE1-1A6784B53A38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t>datebase name</t>
   </si>
@@ -103,9 +103,6 @@
     <t>ridership</t>
   </si>
   <si>
-    <t>tripID</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -124,13 +121,7 @@
     <t>end_date</t>
   </si>
   <si>
-    <t>memberTypeID</t>
-  </si>
-  <si>
     <t>1-Casual, 2-Annual</t>
-  </si>
-  <si>
-    <t>bikeID</t>
   </si>
   <si>
     <t>Id</t>
@@ -205,6 +196,15 @@
   </si>
   <si>
     <t>Customer</t>
+  </si>
+  <si>
+    <t>station_id</t>
+  </si>
+  <si>
+    <t>station_name</t>
+  </si>
+  <si>
+    <t>trip_duration</t>
   </si>
 </sst>
 </file>
@@ -516,10 +516,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="135" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="135" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -578,16 +578,16 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -613,6 +613,9 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="2"/>
+    </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>9</v>
@@ -620,311 +623,316 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2">
-        <v>7233</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2">
-        <v>7233</v>
-      </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>55</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7233</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7233</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
         <v>1</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="2">
         <v>2</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F20" s="2">
         <v>3</v>
       </c>
-      <c r="G19" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>22</v>
+      <c r="G20" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="C32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="2" t="s">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="B35" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="6" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="C47" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/1_Data_Modeling/ERD.xlsx
+++ b/1_Data_Modeling/ERD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karenTratnik/dataAnalytics/bootcamp_homework/project2/1_Data_Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9CA8CD-E1A3-1845-AEE1-1A6784B53A38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2764483-3C32-004F-8B18-8DF443895835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>datebase name</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>start_date</t>
-  </si>
-  <si>
-    <t>datetime</t>
   </si>
   <si>
     <t>end_date</t>
@@ -189,9 +186,6 @@
     <t>numeric(10,2)</t>
   </si>
   <si>
-    <t>varchar(250)</t>
-  </si>
-  <si>
     <t>Subscriber</t>
   </si>
   <si>
@@ -205,6 +199,18 @@
   </si>
   <si>
     <t>trip_duration</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>member_type</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
   </si>
 </sst>
 </file>
@@ -518,8 +524,8 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="135" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="135" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -546,70 +552,47 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2">
         <v>5</v>
       </c>
-      <c r="H4" s="2">
+      <c r="C4" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="F5">
         <v>4</v>
       </c>
-      <c r="G6">
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="H6">
+      <c r="H5">
         <v>3</v>
       </c>
     </row>
@@ -626,7 +609,7 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2">
         <v>7233</v>
@@ -640,7 +623,7 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -698,7 +681,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -770,7 +753,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>27</v>
@@ -797,31 +780,31 @@
         <v>30</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>4</v>
@@ -832,7 +815,7 @@
         <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
@@ -840,7 +823,7 @@
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>8</v>
@@ -848,10 +831,10 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -861,40 +844,40 @@
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>27</v>
@@ -902,7 +885,7 @@
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>8</v>
@@ -913,26 +896,26 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/1_Data_Modeling/ERD.xlsx
+++ b/1_Data_Modeling/ERD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karenTratnik/dataAnalytics/bootcamp_homework/project2/1_Data_Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2764483-3C32-004F-8B18-8DF443895835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07FBC99-F1C7-EF48-83EF-65EE81AA8622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>datebase name</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>price_id</t>
-  </si>
-  <si>
-    <t>membertype_id</t>
   </si>
   <si>
     <t>plan</t>
@@ -524,8 +521,8 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="135" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="135" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -561,16 +558,16 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="G4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -604,64 +601,59 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7233</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7233</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="2">
-        <v>7233</v>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2">
-        <v>7233</v>
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -676,16 +668,11 @@
         <v>17</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -694,7 +681,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -753,7 +740,7 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>27</v>
@@ -780,7 +767,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -788,12 +775,12 @@
         <v>31</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
@@ -896,26 +883,26 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/1_Data_Modeling/ERD.xlsx
+++ b/1_Data_Modeling/ERD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karenTratnik/dataAnalytics/bootcamp_homework/project2/1_Data_Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07FBC99-F1C7-EF48-83EF-65EE81AA8622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E291B234-4323-9343-940E-74C76BAC98D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
   <si>
     <t>datebase name</t>
   </si>
@@ -208,6 +208,21 @@
   </si>
   <si>
     <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>https://www.bluebikes.com/pricing</t>
+  </si>
+  <si>
+    <t>https://www.citibikenyc.com/pricing</t>
+  </si>
+  <si>
+    <t>https://www.mobibikes.ca/en/offers-subscription</t>
+  </si>
+  <si>
+    <t>https://bikesharetoronto.com/pricing/</t>
+  </si>
+  <si>
+    <t>websites:</t>
   </si>
 </sst>
 </file>
@@ -519,10 +534,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="135" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="135" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -889,7 +904,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="7" t="s">
         <v>47</v>
       </c>
@@ -897,12 +912,49 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/1_Data_Modeling/ERD.xlsx
+++ b/1_Data_Modeling/ERD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karenTratnik/dataAnalytics/bootcamp_homework/project2/1_Data_Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E291B234-4323-9343-940E-74C76BAC98D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2633FA-02B8-354D-883A-6BCA831871C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
   <si>
     <t>datebase name</t>
   </si>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>websites:</t>
+  </si>
+  <si>
+    <t>websites</t>
+  </si>
+  <si>
+    <t>new york</t>
+  </si>
+  <si>
+    <t>https://climate.weather.gc.ca/climate_data/daily_data_e.html?hlyRange=2013-06-11%7C2020-12-13&amp;dlyRange=2013-06-13%7C2020-12-13&amp;mlyRange=%7C&amp;StationID=51442&amp;Prov=BC&amp;urlExtension=_e.html&amp;searchType=stnName&amp;optLimit=specDate&amp;StartYear=2019&amp;EndYear=2019&amp;selRowPerPage=25&amp;Line=2&amp;searchMethod=contains&amp;Month=1&amp;Day=13&amp;txtStationName=Vancouver&amp;timeframe=2&amp;Year=2019</t>
+  </si>
+  <si>
+    <t>https://climate.weather.gc.ca/climate_data/daily_data_e.html?hlyRange=2002-06-04%7C2020-12-13&amp;dlyRange=2002-06-04%7C2020-12-13&amp;mlyRange=2003-07-01%7C2006-12-01&amp;StationID=31688&amp;Prov=ON&amp;urlExtension=_e.html&amp;searchType=stnName&amp;optLimit=specDate&amp;StartYear=1840&amp;EndYear=2020&amp;selRowPerPage=25&amp;Line=2&amp;searchMethod=contains&amp;Month=1&amp;Day=1&amp;txtStationName=Toronto&amp;timeframe=2&amp;Year=2019</t>
   </si>
 </sst>
 </file>
@@ -268,7 +280,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +305,18 @@
         <bgColor rgb="FF4A86E8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -306,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -316,6 +340,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,8 +564,8 @@
   </sheetPr>
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="135" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="135" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -823,59 +851,80 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B46" s="7" t="s">
@@ -885,7 +934,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>37</v>
       </c>
@@ -896,7 +945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="7" t="s">
         <v>56</v>
       </c>
@@ -921,7 +970,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
+      <c r="A52" s="10" t="s">
         <v>63</v>
       </c>
     </row>

--- a/1_Data_Modeling/ERD.xlsx
+++ b/1_Data_Modeling/ERD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karenTratnik/dataAnalytics/bootcamp_homework/project2/1_Data_Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2633FA-02B8-354D-883A-6BCA831871C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A8F2AB-E6FC-6F46-83D8-D201105F28AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>datebase name</t>
   </si>
@@ -231,17 +231,23 @@
     <t>new york</t>
   </si>
   <si>
-    <t>https://climate.weather.gc.ca/climate_data/daily_data_e.html?hlyRange=2013-06-11%7C2020-12-13&amp;dlyRange=2013-06-13%7C2020-12-13&amp;mlyRange=%7C&amp;StationID=51442&amp;Prov=BC&amp;urlExtension=_e.html&amp;searchType=stnName&amp;optLimit=specDate&amp;StartYear=2019&amp;EndYear=2019&amp;selRowPerPage=25&amp;Line=2&amp;searchMethod=contains&amp;Month=1&amp;Day=13&amp;txtStationName=Vancouver&amp;timeframe=2&amp;Year=2019</t>
-  </si>
-  <si>
-    <t>https://climate.weather.gc.ca/climate_data/daily_data_e.html?hlyRange=2002-06-04%7C2020-12-13&amp;dlyRange=2002-06-04%7C2020-12-13&amp;mlyRange=2003-07-01%7C2006-12-01&amp;StationID=31688&amp;Prov=ON&amp;urlExtension=_e.html&amp;searchType=stnName&amp;optLimit=specDate&amp;StartYear=1840&amp;EndYear=2020&amp;selRowPerPage=25&amp;Line=2&amp;searchMethod=contains&amp;Month=1&amp;Day=1&amp;txtStationName=Toronto&amp;timeframe=2&amp;Year=2019</t>
+    <t>https://www.worldweatheronline.com/toronto-weather-history/ontario/ca.aspx</t>
+  </si>
+  <si>
+    <t>https://www.worldweatheronline.com/vancouver-weather-history/british-columbia/ca.aspx</t>
+  </si>
+  <si>
+    <t>https://www.worldweatheronline.com/boston-weather/massachusetts/us.aspx</t>
+  </si>
+  <si>
+    <t>https://www.worldweatheronline.com/new-york-weather/new-york/us.aspx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -278,6 +284,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -327,10 +339,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -344,8 +357,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -565,7 +580,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B26" zoomScale="135" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -872,8 +887,8 @@
       <c r="D35" t="s">
         <v>19</v>
       </c>
-      <c r="E35" t="s">
-        <v>67</v>
+      <c r="E35" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -884,7 +899,7 @@
         <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -894,6 +909,9 @@
       <c r="D37" t="s">
         <v>21</v>
       </c>
+      <c r="E37" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
@@ -902,6 +920,9 @@
       <c r="D38" t="s">
         <v>65</v>
       </c>
+      <c r="E38" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
@@ -912,6 +933,7 @@
       <c r="B40" t="s">
         <v>41</v>
       </c>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
@@ -1007,6 +1029,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E35" r:id="rId1" xr:uid="{D5D4A1F2-B617-0E49-96E6-F6692DD3FCA9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/1_Data_Modeling/ERD.xlsx
+++ b/1_Data_Modeling/ERD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karenTratnik/dataAnalytics/bootcamp_homework/project2/1_Data_Modeling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sharanvika\Documents\GitHub\project2\1_Data_Modeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A8F2AB-E6FC-6F46-83D8-D201105F28AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C5DFF9-2033-463D-A064-E89C7D90043D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -579,17 +579,17 @@
   </sheetPr>
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="135" zoomScaleNormal="192" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="135" zoomScaleNormal="192" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,12 +597,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -628,7 +628,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -651,10 +651,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -671,7 +671,7 @@
         <v>7233</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>53</v>
       </c>
@@ -685,7 +685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -693,7 +693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
@@ -701,7 +701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
@@ -715,13 +715,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -729,12 +729,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -754,7 +754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
@@ -771,7 +771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
@@ -788,7 +788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -796,7 +796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>54</v>
       </c>
@@ -804,7 +804,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
@@ -812,7 +812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
@@ -820,7 +820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
@@ -828,7 +828,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
@@ -836,7 +836,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>56</v>
       </c>
@@ -847,7 +847,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
@@ -855,7 +855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>34</v>
       </c>
@@ -877,7 +877,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
@@ -891,61 +891,61 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D36" t="s">
         <v>20</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="D37" t="s">
         <v>21</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="D38" t="s">
         <v>65</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="D40" s="13"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>36</v>
       </c>
@@ -956,7 +956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>37</v>
       </c>
@@ -967,7 +967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>56</v>
       </c>
@@ -975,7 +975,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
         <v>47</v>
       </c>
@@ -983,7 +983,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
         <v>48</v>
       </c>
@@ -991,47 +991,55 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>21</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>22</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>20</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>19</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="13" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E35" r:id="rId1" xr:uid="{D5D4A1F2-B617-0E49-96E6-F6692DD3FCA9}"/>
+    <hyperlink ref="E36" r:id="rId2" xr:uid="{BFDBA3B0-9313-4081-B3C5-15A39C595157}"/>
+    <hyperlink ref="E37" r:id="rId3" xr:uid="{45950ED5-B3AB-42CF-9D05-0A110A48BEBD}"/>
+    <hyperlink ref="E38" r:id="rId4" xr:uid="{C310E88B-2A95-44B8-AF21-AB446FCB32F2}"/>
+    <hyperlink ref="B53" r:id="rId5" xr:uid="{6C6B60B0-1D3D-4DFF-A2EB-B0FBF4380C5C}"/>
+    <hyperlink ref="B54" r:id="rId6" xr:uid="{1059CBC7-0D9E-47A0-9C32-E64DEF7BA554}"/>
+    <hyperlink ref="B55" r:id="rId7" xr:uid="{7D37EE85-59D4-457B-BADE-11B185C9CD56}"/>
+    <hyperlink ref="B56" r:id="rId8" xr:uid="{741BA191-AF67-441A-9DF3-8583893FD963}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>